--- a/INDIVIDUAL_ARGUMENTS/TVbooks_books.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/TVbooks_books.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>#id</t>
   </si>
@@ -29,160 +28,241 @@
     <t>Books offer improvement with grammar and spelling skills. Plus it's more creative. With TV everything is done for you. With books you can imagine the characters looks and the setting with your own little creativity in it.  Plus you can take books anywhere and everywhere without disrupting anyone.</t>
   </si>
   <si>
+    <t>297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
+  </si>
+  <si>
     <t>arg315568</t>
   </si>
   <si>
     <t>While there are benifits to TV, i think books are better overal for learning as they require more focus.</t>
   </si>
   <si>
+    <t>104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg135553</t>
   </si>
   <si>
     <t>books make you more intelligent. they can also say what people are thinking.</t>
   </si>
   <si>
+    <t>76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg135650</t>
   </si>
   <si>
     <t>If those who have actually read a book, then there is really no debate.</t>
   </si>
   <si>
+    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg339484</t>
   </si>
   <si>
     <t>because its better for young kids that have to do school work and its healthier for their eyes. When kids need to do their homework they need to do more reading than watching tv. :-)</t>
   </si>
   <si>
+    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0</t>
+  </si>
+  <si>
     <t>arg218503</t>
   </si>
   <si>
     <t>I say books are better because It has you use your Imagination so the more you read the more your Imagination improves and It helps you to Improve reading, grammar, and it improves your writing skills!!!  Also I want to say I HATE commercials!!!  I hate Sponge bob!!! I would say PBS Kids, history channel, and the other Channels that help kids or adults get smarter I would say are good!</t>
   </si>
   <si>
+    <t>388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
+  </si>
+  <si>
     <t>arg585714</t>
   </si>
   <si>
     <t>1. Books don't ruin your eyes like TV. does.  2. Books allow your brain to imagine rather than doing it for you.  3. Reading books a lot can help you with spelling.  4. Reading books a lot can help you write better.  5. Reading books teaches you to read. Watching TV. doesn't</t>
   </si>
   <si>
+    <t>275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
+  </si>
+  <si>
     <t>arg135648</t>
   </si>
   <si>
     <t>One Flew over the Cuckoos Nest, East of Eden, Nabokov's Lolita, 1984, Martian Chronicles - I could go on and on. For real. There's very little that beats the world described in books.</t>
   </si>
   <si>
+    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67</t>
+  </si>
+  <si>
     <t>arg497712</t>
   </si>
   <si>
     <t>books even reduce our electricity bills! which uses much of our spending money</t>
   </si>
   <si>
+    <t>78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg213472</t>
   </si>
   <si>
     <t>books is well better than tv because it is cheaper to buy a book. if you wanted to buy a tv it would be really dear and you have to buy a tv licence. books can help you learn.  a lot of the stuff on tv is either violent or not right for kids.  so books are well better</t>
   </si>
   <si>
+    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg345723</t>
   </si>
   <si>
     <t>I love books, I love getting lost in them. They also improve your literature (so my English teacher said :P)</t>
   </si>
   <si>
+    <t>108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg135637</t>
   </si>
   <si>
     <t>TV is terrible. Except for Spongebob maybe. That's an alright show. Still, the majority of television is awful. So I'd have to say books based on that.</t>
   </si>
   <si>
+    <t>151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg161579</t>
   </si>
   <si>
     <t>Books r like cool! TV is not! Books are for nerds, Tv is for weirdos, I think Black ops is better! ROFL!</t>
   </si>
   <si>
+    <t>104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg223675</t>
   </si>
   <si>
     <t>I think books are better as TV can cause obesity as many people just sit infront of it, it has been proven to cause violence and it reduces learning. Also, books increase someones imagination and creativity as they have to imagine things in the book for themselves.  I am not completely against TV but I do believe that TV is very bad in large amounts and books are very good for people  http://www.echoworld.com/B05/B0510/B0510TVBad.htm</t>
   </si>
   <si>
+    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg135922</t>
   </si>
   <si>
     <t>some ppl cant read is absolutely idiotic to say. the ppl who cant read wud always run away frm dem. bt even den B for books nd B for best. So books r da best. i cant sleep if i wont read a chapter frm any novel each day. bt actually sometimes i feel reading books all day becomes boring (in schools textbooks nd at home novels) so only sometimes i watch tv nd dat 2 news channels. hence by reading books i can even pass my time nd even improve my speaking skills.</t>
   </si>
   <si>
+    <t>463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0</t>
+  </si>
+  <si>
     <t>arg213296</t>
   </si>
   <si>
     <t>When you read a book you economize your money. I would like to mention that when you read a book, you do not need to buy any devices for reading and it is not necessary to use electricity.</t>
   </si>
   <si>
+    <t>188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg213555</t>
   </si>
   <si>
     <t>Books enlighten the soul. Books don't destroy the morals of children. Books throw the mind into a series of questions, they take the readers to mystical places, paradise, and even the kitchen sink. They change your perspective on life and often give the reader a sense of relativity. Television is like a drug. It's as bad as nicotine. Fahrenheit 451, the Night Circus, The Secret Garden, Inkheart... Do I have to further explain..?</t>
   </si>
   <si>
+    <t>432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
+  </si>
+  <si>
     <t>arg317750</t>
   </si>
   <si>
     <t>I thick that book are better than TV is it is better i can put you in a whole norther wold and it is educational</t>
   </si>
   <si>
+    <t>112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg135702</t>
   </si>
   <si>
     <t>Books will be always great whatever the new technological developments emerges books has its fixed place in every humans heart</t>
   </si>
   <si>
+    <t>126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg136716</t>
   </si>
   <si>
     <t>All TV shows are written down as scripts (a form of book) first...</t>
   </si>
   <si>
+    <t>66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg273350</t>
   </si>
   <si>
     <t>Books are better than TV because books have each and every detail briefly . we get to read books like story books , fairy tales, ghost stories etc these books help us in bringing imaginary power in us . In TV only some points are explained and sometimes we cant remember it easily but in books if we forget anything we can now and then read it .At last I only want to tell that books are much and much better than TV .</t>
   </si>
   <si>
+    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0</t>
+  </si>
+  <si>
     <t>arg345719</t>
   </si>
   <si>
     <t>Have any of you noticed that those who are against books are the ones who have terrible arguments. Like that person who just said TV is awesome with many exclamation marks and in capitals. That clearly proves that books are much better than TV because it TV rots the brain.</t>
   </si>
   <si>
+    <t>273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33</t>
+  </si>
+  <si>
     <t>arg663779</t>
   </si>
   <si>
     <t>books are better than TV because TV can make you blind. your eyes can also hurt alot if you watch to much.</t>
   </si>
   <si>
+    <t>106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg135560</t>
   </si>
   <si>
     <t>books are always better than tv coz. books give more knowledge than tv does.</t>
   </si>
   <si>
+    <t>76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg569496</t>
   </si>
   <si>
     <t>books are better than TV because most of the TV kids watch add influences to them which are not good and most parents don't care what there children watch and I thank book are better because you learn more from books.</t>
   </si>
   <si>
+    <t>217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg135647</t>
   </si>
   <si>
     <t>Television is almost the exact same thing as books, the only difference is, you actually have to move your eyes for books</t>
   </si>
   <si>
+    <t>121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg213294</t>
   </si>
   <si>
     <t>Well, Books is better than T.V. because T.V. makes you eyes bad is kills imagination dead! Read 'Television' by Roald Dhal you'll know it all!!! :) :) :) :)</t>
+  </si>
+  <si>
+    <t>156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -190,40 +270,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -231,297 +315,647 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="4" sqref="B2 B7:B8 B11 B15 B16"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B16" activeCellId="4" pane="topLeft" sqref="B2 B7:B8 B11 B15 B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.90816326530612"/>
+    <col customWidth="1" max="2" min="2" style="1" width="71.53571428571431"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="1" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="1" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="0" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="1" r="4" ht="12.8" spans="1:3">
+      <c s="0" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="0" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="5" ht="12.8" spans="1:3">
+      <c s="0" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="0" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="1" r="6" ht="12.8" spans="1:3">
+      <c s="0" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="0" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="7" ht="12.8" spans="1:3">
+      <c s="0" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="0" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="1" r="8" ht="12.8" spans="1:3">
+      <c s="0" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="0" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="9" ht="12.8" spans="1:3">
+      <c s="0" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="0" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="1" r="10" ht="12.8" spans="1:3">
+      <c s="0" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="0" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="11" ht="12.8" spans="1:3">
+      <c s="0" r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c s="0" r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row customHeight="1" s="1" r="12" ht="12.8" spans="1:3">
+      <c s="0" r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c s="0" r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="13" ht="12.8" spans="1:3">
+      <c s="0" r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c s="0" r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row customHeight="1" s="1" r="14" ht="12.8" spans="1:3">
+      <c s="0" r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c s="0" r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="15" ht="12.8" spans="1:3">
+      <c s="0" r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c s="0" r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row customHeight="1" s="1" r="16" ht="12.8" spans="1:3">
+      <c s="0" r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c s="0" r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="17" ht="12.8" spans="1:3">
+      <c s="0" r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c s="0" r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row customHeight="1" s="1" r="18" ht="12.8" spans="1:3">
+      <c s="0" r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c s="0" r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="19" ht="12.8" spans="1:3">
+      <c s="0" r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c s="0" r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
+    <row customHeight="1" s="1" r="20" ht="12.8" spans="1:3">
+      <c s="0" r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c s="0" r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="21" ht="12.8" spans="1:3">
+      <c s="0" r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c s="0" r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="22" ht="12.8" spans="1:3">
+      <c s="0" r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c s="0" r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="23" ht="12.8" spans="1:3">
+      <c s="0" r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c s="0" r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="24" ht="12.8" spans="1:3">
+      <c s="0" r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c s="0" r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="25" ht="12.8" spans="1:3">
+      <c s="0" r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c s="0" r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="26" ht="12.8" spans="1:3">
+      <c s="0" r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c s="0" r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="27" ht="12.8" spans="1:3">
+      <c s="0" r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c s="0" r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="28" ht="12.8" spans="1:3">
+      <c s="0" r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c s="0" r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/TVbooks_books.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/TVbooks_books.xlsx
@@ -28,7 +28,7 @@
     <t>Books offer improvement with grammar and spelling skills. Plus it's more creative. With TV everything is done for you. With books you can imagine the characters looks and the setting with your own little creativity in it.  Plus you can take books anywhere and everywhere without disrupting anyone.</t>
   </si>
   <si>
-    <t>297,0.0,16.52,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.2,0.3,0.06,0.0</t>
+    <t>9.6,6.19,1.25,1.73,0.72,0.0,16.52,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.19,0.13,0.19,0.04,0.04,0.06,0.08,0.08,0.0,0.0,5.69</t>
   </si>
   <si>
     <t>arg315568</t>
@@ -37,7 +37,7 @@
     <t>While there are benifits to TV, i think books are better overal for learning as they require more focus.</t>
   </si>
   <si>
-    <t>104,0.0,14.21,0.0,0.11,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>19.0,5.47,0.5,0.35,1.43,0.0,14.21,0.0,0.11,1.0,0,0,0.0,0.05,0.0,0.26,0.16,0.32,0.05,0.05,0.05,0.0,0.0,0.0,0.0,8.86</t>
   </si>
   <si>
     <t>arg135553</t>
@@ -46,7 +46,7 @@
     <t>books make you more intelligent. they can also say what people are thinking.</t>
   </si>
   <si>
-    <t>76,0.5,13.12,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>6.5,5.85,0.34,0.69,0.49,0.5,13.12,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.23,0.08,0.08,0.15,0.08,0.08,0.0,0.0,15.25</t>
   </si>
   <si>
     <t>arg135650</t>
@@ -55,7 +55,7 @@
     <t>If those who have actually read a book, then there is really no debate.</t>
   </si>
   <si>
-    <t>71,0.0,11.07,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>14.0,5.07,0.37,0.35,1.06,0.0,11.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.21,0.21,0.21,0.0,0.0,0.0,0.0,0.0,25.0</t>
   </si>
   <si>
     <t>arg339484</t>
@@ -64,7 +64,7 @@
     <t>because its better for young kids that have to do school work and its healthier for their eyes. When kids need to do their homework they need to do more reading than watching tv. :-)</t>
   </si>
   <si>
-    <t>182,0.33,12.03,0.0,0.0,0.67,0.0,0.03,0.0,0.15,0.25,0.25,0.06,0.0</t>
+    <t>11.67,5.2,0.91,1.04,0.88,0.33,12.03,0.0,0.0,0.67,0,0,0.0,0.03,0.0,0.2,0.11,0.2,0.0,0.0,0.14,0.0,0.0,0.0,0.0,4.0</t>
   </si>
   <si>
     <t>arg218503</t>
@@ -73,7 +73,7 @@
     <t>I say books are better because It has you use your Imagination so the more you read the more your Imagination improves and It helps you to Improve reading, grammar, and it improves your writing skills!!!  Also I want to say I HATE commercials!!!  I hate Sponge bob!!! I would say PBS Kids, history channel, and the other Channels that help kids or adults get smarter I would say are good!</t>
   </si>
   <si>
-    <t>388,0.5,13.34,0.0,0.01,2.5,0.0,0.03,0.0,0.3,0.45,0.4,0.13,0.0</t>
+    <t>17.75,5.46,1.86,1.39,1.34,0.5,13.34,0.0,0.01,2.5,0,0,0.0,0.03,2.63,0.21,0.07,0.21,0.03,0.03,0.21,0.03,0.08,0.0,0.0,5.84</t>
   </si>
   <si>
     <t>arg585714</t>
@@ -82,7 +82,7 @@
     <t>1. Books don't ruin your eyes like TV. does.  2. Books allow your brain to imagine rather than doing it for you.  3. Reading books a lot can help you with spelling.  4. Reading books a lot can help you write better.  5. Reading books teaches you to read. Watching TV. doesn't</t>
   </si>
   <si>
-    <t>275,0.0,9.56,0.0,0.0,0.92,0.0,0.13,0.0,0.25,0.4,0.4,0.06,0.0</t>
+    <t>4.0,5.29,1.36,4.51,0.3,0.0,9.56,0.0,0.0,0.92,5,0,0.0,0.13,0.0,0.23,0.04,0.17,0.02,0.02,0.12,0.0,0.0,0.0,0.0,8.25</t>
   </si>
   <si>
     <t>arg135648</t>
@@ -91,7 +91,7 @@
     <t>One Flew over the Cuckoos Nest, East of Eden, Nabokov's Lolita, 1984, Martian Chronicles - I could go on and on. For real. There's very little that beats the world described in books.</t>
   </si>
   <si>
-    <t>183,0.0,12.63,0.0,0.06,1.0,0.0,0.03,0.0,0.05,0.05,0.05,0.19,0.67</t>
+    <t>11.0,5.55,0.86,1.04,0.83,0.0,12.63,0.0,0.06,1.0,4,0,0.0,0.03,13.16,0.18,0.06,0.12,0.03,0.03,0.03,0.03,0.0,0.67,0.67,5.33</t>
   </si>
   <si>
     <t>arg497712</t>
@@ -100,7 +100,7 @@
     <t>books even reduce our electricity bills! which uses much of our spending money</t>
   </si>
   <si>
-    <t>78,0.0,14.47,0.0,0.0,0.5,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>6.5,6.0,0.34,0.69,0.49,0.0,14.47,0.0,0.0,0.5,0,0,0.0,0.0,0.0,0.31,0.0,0.15,0.15,0.15,0.15,0.08,0.0,0.0,0.0,10.67</t>
   </si>
   <si>
     <t>arg213472</t>
@@ -109,7 +109,7 @@
     <t>books is well better than tv because it is cheaper to buy a book. if you wanted to buy a tv it would be really dear and you have to buy a tv licence. books can help you learn.  a lot of the stuff on tv is either violent or not right for kids.  so books are well better</t>
   </si>
   <si>
-    <t>268,0.2,7.8,0.0,0.0,0.8,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>11.8,4.54,1.54,1.73,0.89,0.2,7.8,0.0,0.0,0.8,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.1,0.1,0.08,0.0,0.0,0.0,0.0,6.58</t>
   </si>
   <si>
     <t>arg345723</t>
@@ -118,7 +118,7 @@
     <t>I love books, I love getting lost in them. They also improve your literature (so my English teacher said :P)</t>
   </si>
   <si>
-    <t>108,0.5,11.52,0.0,0.0,0.5,0.0,0.05,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>10.0,5.4,0.52,0.69,0.75,0.5,11.52,0.0,0.0,0.5,0,0,0.0,0.05,0.0,0.15,0.0,0.35,0.05,0.05,0.25,0.05,0.08,0.0,0.0,9.43</t>
   </si>
   <si>
     <t>arg135637</t>
@@ -127,7 +127,7 @@
     <t>TV is terrible. Except for Spongebob maybe. That's an alright show. Still, the majority of television is awful. So I'd have to say books based on that.</t>
   </si>
   <si>
-    <t>151,0.0,9.43,0.0,0.07,1.0,0.0,0.04,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>5.4,5.59,0.71,1.73,0.41,0.0,9.43,0.0,0.07,1.0,0,0,0.0,0.04,2.63,0.22,0.07,0.19,0.07,0.07,0.0,0.04,0.0,0.0,0.0,6.6</t>
   </si>
   <si>
     <t>arg161579</t>
@@ -136,7 +136,7 @@
     <t>Books r like cool! TV is not! Books are for nerds, Tv is for weirdos, I think Black ops is better! ROFL!</t>
   </si>
   <si>
-    <t>104,0.0,5.01,0.0,0.05,1.0,0.0,0.09,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>5.5,4.73,0.57,1.39,0.41,0.0,5.01,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.27,0.18,0.27,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.5</t>
   </si>
   <si>
     <t>arg223675</t>
@@ -145,7 +145,7 @@
     <t>I think books are better as TV can cause obesity as many people just sit infront of it, it has been proven to cause violence and it reduces learning. Also, books increase someones imagination and creativity as they have to imagine things in the book for themselves.  I am not completely against TV but I do believe that TV is very bad in large amounts and books are very good for people  http://www.echoworld.com/B05/B0510/B0510TVBad.htm</t>
   </si>
   <si>
-    <t>437,0.67,14.08,0.0,0.03,1.67,0.0,0.04,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>24.33,5.99,1.91,1.04,1.83,0.67,14.08,0.0,0.03,1.67,10,0,0.0,0.04,0.0,0.19,0.07,0.25,0.08,0.08,0.08,0.04,0.08,0.0,0.0,4.29</t>
   </si>
   <si>
     <t>arg135922</t>
@@ -154,7 +154,7 @@
     <t>some ppl cant read is absolutely idiotic to say. the ppl who cant read wud always run away frm dem. bt even den B for books nd B for best. So books r da best. i cant sleep if i wont read a chapter frm any novel each day. bt actually sometimes i feel reading books all day becomes boring (in schools textbooks nd at home novels) so only sometimes i watch tv nd dat 2 news channels. hence by reading books i can even pass my time nd even improve my speaking skills.</t>
   </si>
   <si>
-    <t>463,0.0,10.55,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.06,0.0</t>
+    <t>13.43,4.93,2.46,2.43,1.01,0.0,10.55,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.26,0.12,0.21,0.11,0.11,0.02,0.01,0.08,0.0,0.0,3.55</t>
   </si>
   <si>
     <t>arg213296</t>
@@ -163,7 +163,7 @@
     <t>When you read a book you economize your money. I would like to mention that when you read a book, you do not need to buy any devices for reading and it is not necessary to use electricity.</t>
   </si>
   <si>
-    <t>188,0.0,11.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>19.0,4.95,0.99,0.69,1.43,0.0,11.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.26,0.05,0.05,0.18,0.03,0.0,0.0,0.0,10.63</t>
   </si>
   <si>
     <t>arg213555</t>
@@ -172,7 +172,7 @@
     <t>Books enlighten the soul. Books don't destroy the morals of children. Books throw the mind into a series of questions, they take the readers to mystical places, paradise, and even the kitchen sink. They change your perspective on life and often give the reader a sense of relativity. Television is like a drug. It's as bad as nicotine. Fahrenheit 451, the Night Circus, The Secret Garden, Inkheart... Do I have to further explain..?</t>
   </si>
   <si>
-    <t>432,0.14,14.16,0.0,0.01,1.71,0.0,0.01,0.0,0.15,0.1,0.1,0.19,0.0</t>
+    <t>10.43,5.92,1.91,2.43,0.79,0.14,14.16,0.0,0.01,1.71,3,0,0.0,0.01,7.89,0.37,0.05,0.14,0.04,0.04,0.05,0.04,0.15,0.0,0.0,2.79</t>
   </si>
   <si>
     <t>arg317750</t>
@@ -181,7 +181,7 @@
     <t>I thick that book are better than TV is it is better i can put you in a whole norther wold and it is educational</t>
   </si>
   <si>
-    <t>112,0.0,9.36,0.0,0.08,0.0,0.0,0.04,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>25.0,4.48,0.65,0.35,1.88,0.0,9.36,0.0,0.08,0.0,0,0,0.0,0.04,0.0,0.08,0.12,0.24,0.04,0.04,0.16,0.04,0.08,0.0,0.0,8.43</t>
   </si>
   <si>
     <t>arg135702</t>
@@ -190,7 +190,7 @@
     <t>Books will be always great whatever the new technological developments emerges books has its fixed place in every humans heart</t>
   </si>
   <si>
-    <t>126,0.0,19.76,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>20.0,6.3,0.52,0.35,1.51,0.0,19.76,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.05,0.1,0.15,0.0,0.0,7.22</t>
   </si>
   <si>
     <t>arg136716</t>
@@ -199,7 +199,7 @@
     <t>All TV shows are written down as scripts (a form of book) first...</t>
   </si>
   <si>
-    <t>66,0.0,9.51,0.0,0.0,3.0,0.0,0.08,0.0,0.1,0.2,0.15,0.0,0.0</t>
+    <t>13.0,5.08,0.34,0.35,0.98,0.0,9.51,0.0,0.0,3.0,0,0,0.0,0.08,0.0,0.31,0.0,0.23,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.5</t>
   </si>
   <si>
     <t>arg273350</t>
@@ -208,7 +208,7 @@
     <t>Books are better than TV because books have each and every detail briefly . we get to read books like story books , fairy tales, ghost stories etc these books help us in bringing imaginary power in us . In TV only some points are explained and sometimes we cant remember it easily but in books if we forget anything we can now and then read it .At last I only want to tell that books are much and much better than TV .</t>
   </si>
   <si>
-    <t>418,0.67,13.22,0.0,0.0,1.33,0.0,0.04,0.0,0.1,0.15,0.15,0.06,0.0</t>
+    <t>28.0,4.98,2.19,1.04,2.11,0.67,13.22,0.0,0.0,1.33,0,0,0.0,0.04,0.0,0.17,0.06,0.19,0.08,0.08,0.11,0.0,0.0,0.0,0.0,5.29</t>
   </si>
   <si>
     <t>arg345719</t>
@@ -217,7 +217,7 @@
     <t>Have any of you noticed that those who are against books are the ones who have terrible arguments. Like that person who just said TV is awesome with many exclamation marks and in capitals. That clearly proves that books are much better than TV because it TV rots the brain.</t>
   </si>
   <si>
-    <t>273,0.33,14.18,0.0,0.0,1.0,0.0,0.06,0.0,0.15,0.1,0.15,0.13,0.33</t>
+    <t>16.67,5.46,1.31,1.04,1.26,0.33,14.18,0.0,0.0,1.0,0,0,0.0,0.06,0.0,0.22,0.08,0.2,0.06,0.06,0.04,0.02,0.08,0.33,0.33,5.38</t>
   </si>
   <si>
     <t>arg663779</t>
@@ -226,7 +226,7 @@
     <t>books are better than TV because TV can make you blind. your eyes can also hurt alot if you watch to much.</t>
   </si>
   <si>
-    <t>106,1.0,9.31,0.0,0.05,1.0,0.0,0.09,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>11.0,4.82,0.57,0.69,0.83,1.0,9.31,0.0,0.05,1.0,0,0,0.0,0.09,0.0,0.23,0.05,0.27,0.05,0.05,0.14,0.0,0.0,0.0,0.0,9.71</t>
   </si>
   <si>
     <t>arg135560</t>
@@ -235,7 +235,7 @@
     <t>books are always better than tv coz. books give more knowledge than tv does.</t>
   </si>
   <si>
-    <t>76,0.0,11.05,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>7.0,5.43,0.37,0.69,0.53,0.0,11.05,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.14,0.14,0.07,0.07,0.0,0.0,0.0,0.0,0.0,11.8</t>
   </si>
   <si>
     <t>arg569496</t>
@@ -244,7 +244,7 @@
     <t>books are better than TV because most of the TV kids watch add influences to them which are not good and most parents don't care what there children watch and I thank book are better because you learn more from books.</t>
   </si>
   <si>
-    <t>217,2.0,14.02,0.0,0.0,1.0,0.0,0.05,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>41.0,5.29,1.07,0.35,3.09,2.0,14.02,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.22,0.12,0.22,0.05,0.05,0.07,0.02,0.0,0.0,0.0,7.36</t>
   </si>
   <si>
     <t>arg135647</t>
@@ -253,7 +253,7 @@
     <t>Television is almost the exact same thing as books, the only difference is, you actually have to move your eyes for books</t>
   </si>
   <si>
-    <t>121,0.0,14.66,0.0,0.0,0.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>22.0,5.5,0.57,0.35,1.66,0.0,14.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.27,0.14,0.14,0.09,0.09,0.09,0.09,0.08,0.0,0.0,9.71</t>
   </si>
   <si>
     <t>arg213294</t>
@@ -262,7 +262,7 @@
     <t>Well, Books is better than T.V. because T.V. makes you eyes bad is kills imagination dead! Read 'Television' by Roald Dhal you'll know it all!!! :) :) :) :)</t>
   </si>
   <si>
-    <t>156,0.2,7.68,0.0,0.12,1.6,0.0,0.21,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>5.8,5.38,0.76,1.73,0.44,0.2,7.68,0.0,0.12,1.6,0,0,0.0,0.21,2.63,0.28,0.14,0.21,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.55</t>
   </si>
 </sst>
 </file>
